--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_192.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_192.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,548 +488,614 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06911764705882353</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>[['Eb', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
+          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:01.724648', '0:00:04.464603'), ('0:00:03.129454', '0:00:05.172811')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:31.172811', '0:00:46.428321'), ('0:00:03.389127', '0:00:22.035759')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>isophonics_52</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06311154598825831</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'G', 'C']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.2142857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.504874, 12.870226)]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(126.19, 129.59)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:58.920000', '0:01:06.100000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:03.524557', '0:01:10.536984'), ('0:00:07.668956', '0:00:11.140340')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.323076923076923</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.3, 29.36), (66.04, 71.56), (22.08, 26.86)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(32.7, 39.58), (30.76, 37.72), (36.02, 45.64)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3059210526315789</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2285714285714286</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>[['F', 'C', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.421247, 8.635573)]</t>
+          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.2, 16.48)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:33.724965', '0:00:54.715804')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:59.660000', '0:02:03.070000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.438956, 41.94517)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.32, 6.84)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:07.540000', '0:00:16.720000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2243589743589743</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3789473684210526</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5)]</t>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(33.814625, 37.738798)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(64.476575, 67.2978)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09870129870129869</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.482392, 11.666439)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98), (7.84, 11.42)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307), (7.702, 13.841)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0826923076923077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'D:7/C']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'B:7']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(242.5, 250.3)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(155.208548, 161.535985)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1540178571428572</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(89.739, 104.707)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.463061, 12.591587)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -1033,78 +1104,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(57.48, 68.7)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.829138, 17.282018)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2305986696230599</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.61, 56.99)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.88, 12.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
